--- a/excel_sim/最適解_はじめの一歩.xlsx
+++ b/excel_sim/最適解_はじめの一歩.xlsx
@@ -8,28 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sion0\OneDrive\デスクトップ\卒業研究\simulation\excel_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D00402-DA3C-4834-8906-64E52C282C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12222E48-C352-4DC3-946B-F2D68A526315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="315" windowWidth="14595" windowHeight="15165" xr2:uid="{0B1CF44E-955D-468F-BC41-3781C49B44B2}"/>
+    <workbookView xWindow="14205" yWindow="135" windowWidth="14595" windowHeight="15165" xr2:uid="{0B1CF44E-955D-468F-BC41-3781C49B44B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$10:$H$11</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$11:$H$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$10:$H$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$C$12:$H$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$11:$H$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$C$13:$H$13</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$C$14:$H$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$H$13</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$H$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$H$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$H$14</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$H$14</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$H$14</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Sheet1!$H$14</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -38,7 +38,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
@@ -69,7 +69,6 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD503AD2-40CB-4451-8AF6-B783BDF3B06F}">
-  <dimension ref="A3:Q16"/>
+  <dimension ref="A3:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -548,94 +547,98 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
       <c r="B8">
-        <f>258*EXP(-(7-B9)/45)</f>
-        <v>225.79471631308044</v>
+        <f>258</f>
+        <v>258</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:H8" si="0">(17.82*C10+26.73*C11)*EXP(-(7-C9)/45)</f>
-        <v>0</v>
+        <f>(17.82*C11+26.73*C12)+B8*EXP(-1/45)</f>
+        <v>252.32990110102693</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>24.456539423953728</v>
+        <f t="shared" ref="D8:H8" si="0">(17.82*D11+26.73*D12)+C8*EXP(-1/45)</f>
+        <v>246.78441468858153</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>25.006101709895145</v>
+        <v>259.18080213815733</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>25.568013196223973</v>
+        <v>271.30475260002351</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283.16225345659888</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
+        <v>303.66916050483536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>258*EXP(-(7-B10)/45)</f>
+        <v>225.79471631308044</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:H9" si="1">(17.82*C11+26.73*C12)*EXP(-(7-C10)/45)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>16.67073447326343</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>17.045342130815982</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>17.428367587675581</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>26.73</v>
       </c>
-      <c r="I8">
-        <f>SUM(B8:H8)</f>
-        <v>327.55537064315331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="I9">
+        <f>SUM(B9:H9)</f>
+        <v>303.66916050483542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -653,125 +656,121 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <f>SUM(B10:B11)</f>
-        <v>0</v>
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:H12" si="1">SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
       <c r="B13">
-        <f>187.5*EXP(-(7-B9)/15)</f>
-        <v>125.68500863168238</v>
+        <f>SUM(B11:B12)</f>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:H13" si="2">(17.82*C10+26.73*C11)*EXP(-(7-C9)/15)</f>
+        <f t="shared" ref="C13:H13" si="2">SUM(C11:C12)</f>
         <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>20.473264484487061</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>21.884673029774454</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>23.393382818017987</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>26.73</v>
-      </c>
-      <c r="I13">
-        <f>SUM(B13:H13)</f>
-        <v>218.16632896396186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f>187.5</f>
+        <v>187.5</v>
+      </c>
       <c r="C14">
-        <f>SUM(B13:C13)</f>
-        <v>125.68500863168238</v>
+        <f>(17.82*C11+26.73*C12)+B14*EXP(-1/15)</f>
+        <v>175.40755969342834</v>
       </c>
       <c r="D14">
-        <f>SUM(B13:D13)</f>
-        <v>146.15827311616943</v>
+        <f t="shared" ref="D14:H14" si="3">(17.82*D11+26.73*D12)+C14*EXP(-1/15)</f>
+        <v>164.09499732055266</v>
       </c>
       <c r="E14">
-        <f>SUM(B13:E13)</f>
-        <v>168.04294614594389</v>
+        <f t="shared" si="3"/>
+        <v>171.33201620212162</v>
       </c>
       <c r="F14">
-        <f>SUM(B13:F13)</f>
-        <v>191.43632896396187</v>
+        <f t="shared" si="3"/>
+        <v>178.10229791663508</v>
       </c>
       <c r="G14">
-        <f>SUM(B13:G13)</f>
-        <v>191.43632896396187</v>
+        <f t="shared" si="3"/>
+        <v>184.43594375119426</v>
       </c>
       <c r="H14">
-        <f>SUM(B13:H13)</f>
-        <v>218.16632896396186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+        <f t="shared" si="3"/>
+        <v>199.27111367014078</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel_sim/最適解_はじめの一歩.xlsx
+++ b/excel_sim/最適解_はじめの一歩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sion0\OneDrive\デスクトップ\卒業研究\simulation\excel_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12222E48-C352-4DC3-946B-F2D68A526315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF94617-8633-4499-B0EF-9DE4E3D70EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14205" yWindow="135" windowWidth="14595" windowHeight="15165" xr2:uid="{0B1CF44E-955D-468F-BC41-3781C49B44B2}"/>
   </bookViews>
@@ -168,12 +168,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -182,8 +197,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD503AD2-40CB-4451-8AF6-B783BDF3B06F}">
-  <dimension ref="A3:Q17"/>
+  <dimension ref="A3:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -515,6 +533,7 @@
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -552,11 +571,11 @@
         <v>258</v>
       </c>
       <c r="C8">
-        <f>(17.82*C11+26.73*C12)+B8*EXP(-1/45)</f>
+        <f>(17.82*C12+26.73*C11)+B8*EXP(-1/45)</f>
         <v>252.32990110102693</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:H8" si="0">(17.82*D11+26.73*D12)+C8*EXP(-1/45)</f>
+        <f t="shared" ref="D8:H8" si="0">(17.82*D12+26.73*D11)+C8*EXP(-1/45)</f>
         <v>246.78441468858153</v>
       </c>
       <c r="E8">
@@ -565,15 +584,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>271.30475260002351</v>
+        <v>280.21475260002353</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>283.16225345659888</v>
+        <v>291.87643725043671</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>303.66916050483536</v>
+        <v>303.28183157024336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -585,11 +604,11 @@
         <v>225.79471631308044</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:H9" si="1">(17.82*C11+26.73*C12)*EXP(-(7-C10)/45)</f>
+        <f>(17.82*C12+26.73*C11)*EXP(-(7-C10)/45)</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D9:H9" si="1">(17.82*D12+26.73*D11)*EXP(-(7-D10)/45)</f>
         <v>0</v>
       </c>
       <c r="E9">
@@ -598,7 +617,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>17.045342130815982</v>
+        <v>25.568013196223973</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -606,11 +625,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>26.73</v>
+        <v>17.82</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>303.66916050483542</v>
+        <v>303.28183157024336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -637,54 +656,54 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1.5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -727,11 +746,11 @@
         <v>187.5</v>
       </c>
       <c r="C14">
-        <f>(17.82*C11+26.73*C12)+B14*EXP(-1/15)</f>
+        <f>(17.82*C12+26.73*C11)+B14*EXP(-1/15)</f>
         <v>175.40755969342834</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:H14" si="3">(17.82*D11+26.73*D12)+C14*EXP(-1/15)</f>
+        <f t="shared" ref="D14:H14" si="3">(17.82*D12+26.73*D11)+C14*EXP(-1/15)</f>
         <v>164.09499732055266</v>
       </c>
       <c r="E14">
@@ -740,15 +759,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>178.10229791663508</v>
+        <v>187.01229791663508</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>184.43594375119426</v>
+        <v>192.77131098782596</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>199.27111367014078</v>
+        <v>198.15890794281341</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -772,6 +791,26 @@
       </c>
       <c r="H17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <f>I9-H14*2</f>
+        <v>-93.035984315383473</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>199.31</v>
+      </c>
+      <c r="F23">
+        <f>E24-E23*2</f>
+        <v>-94.949999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>303.67</v>
       </c>
     </row>
   </sheetData>

--- a/excel_sim/最適解_はじめの一歩.xlsx
+++ b/excel_sim/最適解_はじめの一歩.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sion0\OneDrive\デスクトップ\卒業研究\simulation\excel_sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/165b36cbc679279f/デスクトップ/卒業研究/simulation/excel_sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF94617-8633-4499-B0EF-9DE4E3D70EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4967" documentId="13_ncr:1_{F972C04D-3C47-49E1-83F4-FC76F0D65D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00C1490-8557-456D-98A2-1E6C477E88CF}"/>
   <bookViews>
     <workbookView xWindow="14205" yWindow="135" windowWidth="14595" windowHeight="15165" xr2:uid="{0B1CF44E-955D-468F-BC41-3781C49B44B2}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD503AD2-40CB-4451-8AF6-B783BDF3B06F}">
   <dimension ref="A3:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -571,28 +571,28 @@
         <v>258</v>
       </c>
       <c r="C8">
-        <f>(17.82*C12+26.73*C11)+B8*EXP(-1/45)</f>
-        <v>252.32990110102693</v>
+        <f>(13.2*C12+19.8*C11)+B8*EXP(-1/45)</f>
+        <v>272.12990110102692</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:H8" si="0">(17.82*D12+26.73*D11)+C8*EXP(-1/45)</f>
-        <v>246.78441468858153</v>
+        <f t="shared" ref="D8:H8" si="0">(13.2*D12+19.8*D11)+C8*EXP(-1/45)</f>
+        <v>279.34926756377661</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>259.18080213815733</v>
+        <v>273.20997308919402</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>280.21475260002353</v>
+        <v>287.00560267213393</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>291.87643725043671</v>
+        <v>293.89804394457434</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>303.28183157024336</v>
+        <v>307.23900915627797</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -604,32 +604,32 @@
         <v>225.79471631308044</v>
       </c>
       <c r="C9">
-        <f>(17.82*C12+26.73*C11)*EXP(-(7-C10)/45)</f>
-        <v>0</v>
+        <f>(13.2*C12+19.8*C11)*EXP(-(7-C10)/45)</f>
+        <v>17.717818472924524</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:H9" si="1">(17.82*D12+26.73*D11)*EXP(-(7-D10)/45)</f>
-        <v>0</v>
+        <f t="shared" ref="D9:H9" si="1">(13.2*D12+19.8*D11)*EXP(-(7-D10)/45)</f>
+        <v>12.077303419236408</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>16.67073447326343</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>25.568013196223973</v>
+        <v>18.939269034239981</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>17.428367587675581</v>
+        <v>12.909901916796725</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>17.82</v>
+        <v>19.8</v>
       </c>
       <c r="I9">
         <f>SUM(B9:H9)</f>
-        <v>303.28183157024336</v>
+        <v>307.23900915627814</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -714,15 +714,15 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:H13" si="2">SUM(C11:C12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -746,28 +746,28 @@
         <v>187.5</v>
       </c>
       <c r="C14">
-        <f>(17.82*C12+26.73*C11)+B14*EXP(-1/15)</f>
-        <v>175.40755969342834</v>
+        <f>(13.2*C12+19.8*C11)+B14*EXP(-1/15)</f>
+        <v>195.20755969342835</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:H14" si="3">(17.82*D12+26.73*D11)+C14*EXP(-1/15)</f>
-        <v>164.09499732055266</v>
+        <f t="shared" ref="D14:H14" si="3">(13.2*D12+19.8*D11)+C14*EXP(-1/15)</f>
+        <v>195.81803562417869</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>171.33201620212162</v>
+        <v>183.18914012158933</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>187.01229791663508</v>
+        <v>191.1747201656826</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>192.77131098782596</v>
+        <v>192.04528607646094</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>198.15890794281341</v>
+        <v>199.4597065669245</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -793,10 +793,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <f>I9-2*H14</f>
+        <v>-91.680403977570847</v>
+      </c>
+    </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="E22">
         <f>I9-H14*2</f>
-        <v>-93.035984315383473</v>
+        <v>-91.680403977570847</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
